--- a/MTS and seizure freedom.xlsx
+++ b/MTS and seizure freedom.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamdickey/Documents/R project code/Meta-analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamdickey/Documents/R project code/Bayes letter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB13332-5315-DE4A-B042-52CEDDF244A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B95BFC-733D-5E41-BBF9-47B15FE54830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2960" windowWidth="24000" windowHeight="15040" activeTab="4" xr2:uid="{F085295C-066D-EE4D-8590-3DAEC4F3E296}"/>
+    <workbookView xWindow="720" yWindow="2960" windowWidth="24000" windowHeight="15040" activeTab="1" xr2:uid="{F085295C-066D-EE4D-8590-3DAEC4F3E296}"/>
   </bookViews>
   <sheets>
     <sheet name="Kohlhase" sheetId="1" r:id="rId1"/>
     <sheet name="Landazuri" sheetId="2" r:id="rId2"/>
-    <sheet name="Dickey" sheetId="5" r:id="rId3"/>
-    <sheet name="Youngerman" sheetId="3" r:id="rId4"/>
-    <sheet name="Landazuri2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Author</t>
   </si>
@@ -127,15 +124,6 @@
   </si>
   <si>
     <t>Tao - mismatch abstract and Figure 2</t>
-  </si>
-  <si>
-    <t>Confirmed 63%, not 50%</t>
-  </si>
-  <si>
-    <t>Confirmed Le - not 70 vs. 33%</t>
-  </si>
-  <si>
-    <t>Dickey</t>
   </si>
 </sst>
 </file>
@@ -907,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BD6122-A53E-C94A-822D-E5798A7FAE2A}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,9 +1111,6 @@
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1190,9 +1175,6 @@
         <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1225,9 +1207,6 @@
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1322,1214 +1301,6 @@
       </c>
       <c r="I12" s="4">
         <f t="shared" ref="I12" si="5">E12/F12</f>
-        <v>0.44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6119DA78-2718-E940-8714-1E810F6C32B0}">
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>2018</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>34</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <f>D2+F2</f>
-        <v>43</v>
-      </c>
-      <c r="H2" s="4">
-        <f>C2/D2</f>
-        <v>0.67647058823529416</v>
-      </c>
-      <c r="I2" s="4">
-        <f>E2/F2</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>2017</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">D3+F3</f>
-        <v>15</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H11" si="1">C3/D3</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I11" si="2">E3/F3</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2018</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="1"/>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C5">
-        <v>43</v>
-      </c>
-      <c r="D5">
-        <f>43+24</f>
-        <v>67</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>34</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.64179104477611937</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>0.35294117647058826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>2017</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.625</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>2016</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>2018</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>2018</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>2017</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>2018</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA00B49-825D-904B-B0FE-E077940475EC}">
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>2018</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>34</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <f>D2+F2</f>
-        <v>43</v>
-      </c>
-      <c r="H2" s="4">
-        <f>C2/D2</f>
-        <v>0.67647058823529416</v>
-      </c>
-      <c r="I2" s="4">
-        <f>E2/F2</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>2017</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">D3+F3</f>
-        <v>15</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H11" si="1">C3/D3</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I11" si="2">E3/F3</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2018</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="1"/>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C5">
-        <v>43</v>
-      </c>
-      <c r="D5">
-        <f>43+24</f>
-        <v>67</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>34</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.64179104477611937</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>0.35294117647058826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>2017</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.625</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>2016</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>2018</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>2018</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>2017</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>2018</v>
-      </c>
-      <c r="C11">
-        <v>101</v>
-      </c>
-      <c r="D11">
-        <v>195</v>
-      </c>
-      <c r="E11">
-        <v>31</v>
-      </c>
-      <c r="F11">
-        <v>73</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>268</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.517948717948718</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.42465753424657532</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B85E492-039B-CC46-B6B0-D6387B133641}">
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>2018</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>34</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <f>D2+F2</f>
-        <v>43</v>
-      </c>
-      <c r="H2" s="4">
-        <f>C2/D2</f>
-        <v>0.67647058823529416</v>
-      </c>
-      <c r="I2" s="4">
-        <f>E2/F2</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>2017</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G12" si="0">D3+F3</f>
-        <v>15</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H12" si="1">C3/D3</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I12" si="2">E3/F3</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2018</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="1"/>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C5">
-        <v>43</v>
-      </c>
-      <c r="D5">
-        <f>43+24</f>
-        <v>67</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>34</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.64179104477611937</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>0.35294117647058826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>2017</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.625</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>2016</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>2018</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>2018</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>2017</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>2018</v>
-      </c>
-      <c r="C11">
-        <v>101</v>
-      </c>
-      <c r="D11">
-        <v>195</v>
-      </c>
-      <c r="E11">
-        <v>31</v>
-      </c>
-      <c r="F11">
-        <v>73</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>268</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.517948717948718</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.42465753424657532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C12" s="1">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1">
-        <v>60</v>
-      </c>
-      <c r="E12" s="1">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1">
-        <v>25</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
     </row>
